--- a/CompUK products.xlsx
+++ b/CompUK products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoka-San\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853629CC-D434-42E1-AC1A-F22B61BC32EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0781D309-B215-426D-B32E-5BBC1EF53FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4692" yWindow="1836" windowWidth="17280" windowHeight="8880" xr2:uid="{912234AA-1003-49A8-A642-EAA97F3789A8}"/>
+    <workbookView xWindow="-12750" yWindow="4020" windowWidth="22680" windowHeight="10710" xr2:uid="{912234AA-1003-49A8-A642-EAA97F3789A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>Gaming Laptop Name</t>
   </si>
@@ -1133,6 +1133,117 @@
   <si>
     <t>This Microsoft keyboard offers unbeatable value, while also being truly reliable.Quiet touch keys and quick access to media controls simplify how you use your computer. The keyboard comes in a slim, lightweight profile, not taking a lot space on your desk.</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Mini-Description</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 4600H 3GHz
+8GB DDR4, 512GB PCIe SSD
+NVIDIA GeForce GTX 1650
+15.6 Full HD IPS</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600H / 3.3 GHz                       16 GB DDR4, 512GB PCIe SSD                         NVIDIA GeForce RTX 3080                              15.6 Full HD IPS</t>
+  </si>
+  <si>
+    <t>Intel Core i7-12800H up to 4.8GHz
+32GB DDR5, 1TB NVMe SSD                    NVIDIA GeForce RTX 3080 Ti
+17.3 Full HD 360Hz Display</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 3500U 2.1GHz
+8GB RAM + 256GB SSD      AMD Radeon Vega 8 Graphics                                          15.6" FHD Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple M2 Chip 8-core CPU
+8GB RAM, 256GB HDD      8-core GPU                                      13.6" Liquid Retina      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7 11th Gen      16GB DDR4 (2 x 8GB)                512GB M.2 NVMe SSD                NVIDIA RTX A2000                   15" FHD Display                                                         </t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 3600 3.6GHz
+8GB RAM, 500GB NVMe M.2 SSD
+NVIDIA GeForce RTX 3060 12GB</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600X 3.7GHz
+16GB RAM,Samsung 1TB M.2 NVMe SSD
+Asus NVIDIA GeForce RTX 3060 Ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD Ryzen 9 5950X 4.9GHz                                          64GB RAM,Samsung 2TB,Samsung NAND M.2 1TB                                             Asus GeForce RTX 3090 24GB ROG STRIX OC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Pentium N6005 2.0 GHz
+4GB RAM, 1TB HDD             WiFi, Intel UHD           </t>
+  </si>
+  <si>
+    <t>Intel Core i5-1240P 3.3GHz
+8GB RAM, 256GB SSD
+23.8" Full HD Display
+WIFI, Bluetooth</t>
+  </si>
+  <si>
+    <t>Intel Core i5 10th Gen
+8GB RAM + 512GB SSD
+27" 5K Retina Display
+AMD Radeon Pro 5300 4GB</t>
+  </si>
+  <si>
+    <t>Full size, 3 button mouse with scroll wheel
+USB-A connection, Windows, Mac compatible
+Black, with black scroll wheel
+Dimensions 121 x 63 x 37mm</t>
+  </si>
+  <si>
+    <t>Hyper-fast scrolling
+Designed for control
+Logitech Unifying receiver
+Laser tracking</t>
+  </si>
+  <si>
+    <t>Ultra-Lightweight Design
+Razer Focus Pro 30K Optical Sensor
+Razer Optical Switches
+Razer HyperSpeed Wireless
+Rechargeable Battery</t>
+  </si>
+  <si>
+    <t>Quiet                                               Responsive                                               Thin profile keys                                 Media hotkeys</t>
+  </si>
+  <si>
+    <t>2.4ghz Wireless Keyboard
+Whisper-quiet Cherry SX Scissor Keys
+Full-size layout with multimedia keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-Profile mechanical switches                                         Lightsync RGB                     Programmable G-keys                                      </t>
+  </si>
+  <si>
+    <t>1920 x 1080 Full HD
+D-sub &amp; HDMI
+75Hz / 5ms Response Time
+Panel Type: IPS
+AMD FreeSync</t>
+  </si>
+  <si>
+    <t>2560 x 1440 WQHD
+HDMI &amp; DisplayPort
+165Hz / 1ms Response Time
+Panel Type: VA
+AMD Freesync</t>
+  </si>
+  <si>
+    <t>3840 x 2160 4K UHD
+HDMI, DisplayPort &amp; USB-C
+60Hz / 1ms Response Time
+Panel Type: VA
+Height Adjustable</t>
+  </si>
 </sst>
 </file>
 
@@ -1201,7 +1312,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="49">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2079,13 +2211,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5222</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1971674</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>1666875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2140,13 +2272,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3276600</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>64795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1743074</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>1466850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2201,13 +2333,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2581275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>2124074</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2628,105 +2760,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}" name="Table2" displayName="Table2" ref="I5:N8" totalsRowShown="0" dataDxfId="41">
-  <autoFilter ref="I5:N8" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD4EC31F-7966-4A78-ABB4-C5D25180DEA2}" name="Gaming Laptop Name" dataDxfId="40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}" name="Table2" displayName="Table2" ref="I5:O8" totalsRowShown="0" dataDxfId="48">
+  <autoFilter ref="I5:O8" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BD4EC31F-7966-4A78-ABB4-C5D25180DEA2}" name="Gaming Laptop Name" dataDxfId="47"/>
     <tableColumn id="7" xr3:uid="{B7F900E5-1F23-4D01-90EE-D8B64958A59B}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{E9FDD7F0-BA33-4D49-91D3-F5036827C341}" name="Link" dataDxfId="39" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{CAB441C9-F71D-44FA-83B2-91CE010B3CD5}" name="Price" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{70F2F909-187F-483D-800B-B0DBA5C0BC1F}" name="Specs" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{FABA0F8A-7BBC-4C72-A703-72832F569AC7}" name="Description" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{E9FDD7F0-BA33-4D49-91D3-F5036827C341}" name="Link" dataDxfId="46" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{CAB441C9-F71D-44FA-83B2-91CE010B3CD5}" name="Price" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{70F2F909-187F-483D-800B-B0DBA5C0BC1F}" name="Specs" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{FABA0F8A-7BBC-4C72-A703-72832F569AC7}" name="Description" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{316C7D3D-E8AC-4226-9D77-9353869DCF00}" name="Mini-Description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}" name="Table26" displayName="Table26" ref="I12:N15" totalsRowShown="0" dataDxfId="35">
-  <autoFilter ref="I12:N15" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0924C0A3-575C-422C-B77C-8D040F85F234}" name="non-Gaming Laptop Name" dataDxfId="34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}" name="Table26" displayName="Table26" ref="I12:O15" totalsRowShown="0" dataDxfId="42">
+  <autoFilter ref="I12:O15" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0924C0A3-575C-422C-B77C-8D040F85F234}" name="non-Gaming Laptop Name" dataDxfId="41"/>
     <tableColumn id="7" xr3:uid="{25DBC3D1-F62D-418E-A9CB-479A740DF47A}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{E022DE44-48BC-4FF1-91D9-5330411F9CFD}" name="Link" dataDxfId="33" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{CAD0666E-7AC8-4E4F-865D-91105F63C8BE}" name="Price" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{3FE32DAA-16CE-42A6-9B65-7061E3A5F4C3}" name="Specs" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{2ED7B774-C2B8-4561-83C4-0957E15D3107}" name="Description" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{E022DE44-48BC-4FF1-91D9-5330411F9CFD}" name="Link" dataDxfId="40" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{CAD0666E-7AC8-4E4F-865D-91105F63C8BE}" name="Price" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{3FE32DAA-16CE-42A6-9B65-7061E3A5F4C3}" name="Specs" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{2ED7B774-C2B8-4561-83C4-0957E15D3107}" name="Description" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{9961F387-0676-4F03-9731-C9D35CD4A301}" name="Mini-Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}" name="Table25" displayName="Table25" ref="I20:N23" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="I20:N23" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D0F346CF-B0F0-4788-AE29-0DC657DEB108}" name="Gaming Desktops" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}" name="Table25" displayName="Table25" ref="I20:O23" totalsRowShown="0" dataDxfId="36">
+  <autoFilter ref="I20:O23" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D0F346CF-B0F0-4788-AE29-0DC657DEB108}" name="Gaming Desktops" dataDxfId="35"/>
     <tableColumn id="7" xr3:uid="{C6FD16B5-0CEF-4056-A800-0DEE8E349C5D}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{04D83A8C-53E6-460F-9009-22C9BA6714DE}" name="Link" dataDxfId="27" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{FC9484C5-ED3A-4B71-9ECB-409A1BB1D045}" name="Price" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{6419EC40-AE4A-41DD-ACF2-657DC52A8E35}" name="Specs" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{1F7D6E6C-436F-4905-BB3C-7DFF11518BCD}" name="Description" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{04D83A8C-53E6-460F-9009-22C9BA6714DE}" name="Link" dataDxfId="34" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{FC9484C5-ED3A-4B71-9ECB-409A1BB1D045}" name="Price" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{6419EC40-AE4A-41DD-ACF2-657DC52A8E35}" name="Specs" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{1F7D6E6C-436F-4905-BB3C-7DFF11518BCD}" name="Description" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{78C692A8-EB3E-4A29-9C62-E3E734DFA482}" name="Column1" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}" name="Table257" displayName="Table257" ref="I27:N30" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="I27:N30" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{109F89B4-1987-4BA1-979D-204F30C7F26A}" name="Non-Gaming Desktops" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}" name="Table257" displayName="Table257" ref="I27:O30" totalsRowShown="0" dataDxfId="30">
+  <autoFilter ref="I27:O30" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{109F89B4-1987-4BA1-979D-204F30C7F26A}" name="Non-Gaming Desktops" dataDxfId="29"/>
     <tableColumn id="7" xr3:uid="{2DD0F052-8B2C-4EA4-BD7E-76C6D5854CC4}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{AE9A20E0-D2B8-4329-BFD1-15FF06EE29DE}" name="Link" dataDxfId="21" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{E763E5E0-B06C-4670-9F96-D8F83D5EA989}" name="Price" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{C47D91B9-C1E9-4414-A2DB-C3507C4710F6}" name="Specs" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{422FD5C0-23B8-481F-ACBA-465106F0988D}" name="Description" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{AE9A20E0-D2B8-4329-BFD1-15FF06EE29DE}" name="Link" dataDxfId="28" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{E763E5E0-B06C-4670-9F96-D8F83D5EA989}" name="Price" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{C47D91B9-C1E9-4414-A2DB-C3507C4710F6}" name="Specs" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{422FD5C0-23B8-481F-ACBA-465106F0988D}" name="Description" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{F802B731-CDDA-443D-B713-152EAE70261D}" name="Mini-Description" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}" name="Table2578" displayName="Table2578" ref="I35:N38" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="I35:N38" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{76792B42-276C-41C5-B27D-2D7E32988638}" name="Mice" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}" name="Table2578" displayName="Table2578" ref="I35:O38" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="I35:O38" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{76792B42-276C-41C5-B27D-2D7E32988638}" name="Mice" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{B661CF20-49A0-4369-B6A6-AD231B715891}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{516813A2-01BE-4C76-8B0D-19BC1904D922}" name="Link" dataDxfId="15" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{ECF917B9-2321-44A2-A5B8-76CEAD7B2EA5}" name="Price" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{1261F118-2504-4A5F-9574-0FBEED048CB4}" name="Specs" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{02DEA651-2377-4873-B207-C40D403F8CC9}" name="Description" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{516813A2-01BE-4C76-8B0D-19BC1904D922}" name="Link" dataDxfId="22" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{ECF917B9-2321-44A2-A5B8-76CEAD7B2EA5}" name="Price" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{1261F118-2504-4A5F-9574-0FBEED048CB4}" name="Specs" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{02DEA651-2377-4873-B207-C40D403F8CC9}" name="Description" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{B59127EC-DFD4-41CB-AA25-3C944BA0AB93}" name="Mini-Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}" name="Table25789" displayName="Table25789" ref="I43:N46" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="I43:N46" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C64F1AB3-1C41-4995-BBBE-377BE610C786}" name="Keyboards" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}" name="Table25789" displayName="Table25789" ref="I43:O46" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="I43:O46" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C64F1AB3-1C41-4995-BBBE-377BE610C786}" name="Keyboards" dataDxfId="17"/>
     <tableColumn id="7" xr3:uid="{EFA177AB-3DB3-45C8-BB28-FCC206FCA733}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{18D4AAAE-678E-4FDA-B7BD-41E33064C28E}" name="Link" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{CBB97B77-62BC-4EBC-82F0-1F7C4CE05267}" name="Price" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4BCC1978-356D-4255-9803-11BE525BB697}" name="Specs" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{253E6D19-0FF9-4A30-A877-41643148E9B1}" name="Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{18D4AAAE-678E-4FDA-B7BD-41E33064C28E}" name="Link" dataDxfId="16" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{CBB97B77-62BC-4EBC-82F0-1F7C4CE05267}" name="Price" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4BCC1978-356D-4255-9803-11BE525BB697}" name="Specs" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{253E6D19-0FF9-4A30-A877-41643148E9B1}" name="Description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{AD7CE236-0EBC-4A3C-B92F-53CB876F7311}" name="Mini-Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}" name="Table2578910" displayName="Table2578910" ref="I49:N52" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="I49:N52" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF451220-E59C-48E3-AE18-920BEE873F38}" name="Monitors" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}" name="Table2578910" displayName="Table2578910" ref="I48:O51" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="I48:O51" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FF451220-E59C-48E3-AE18-920BEE873F38}" name="Monitors" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{4BA9E720-4254-4A46-B23F-6CF599AB4B15}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{F6030696-5319-4764-9C2C-F8CD18AFF761}" name="Link" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{3A1AEFF1-89E1-418B-B6F8-1F039973D544}" name="Price" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{469EE545-9E7D-45A1-95BA-A308E2E0360E}" name="Specs" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8DE434C1-3991-4978-8691-E259D34889B2}" name="Description" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F6030696-5319-4764-9C2C-F8CD18AFF761}" name="Link" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{3A1AEFF1-89E1-418B-B6F8-1F039973D544}" name="Price" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{469EE545-9E7D-45A1-95BA-A308E2E0360E}" name="Specs" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8DE434C1-3991-4978-8691-E259D34889B2}" name="Description" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{78E2AF30-5F0D-4BDF-82E2-A302E42737DB}" name="Mini-Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3032,19 +3171,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="I5:N52"/>
+  <dimension ref="I5:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="K51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="13" width="50.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="50.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -3063,8 +3203,11 @@
       <c r="N5" t="s">
         <v>5</v>
       </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3080,8 +3223,11 @@
       <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3097,8 +3243,11 @@
       <c r="N7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3114,8 +3263,11 @@
       <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>18</v>
       </c>
@@ -3134,8 +3286,11 @@
       <c r="N12" t="s">
         <v>5</v>
       </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="13" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3151,8 +3306,11 @@
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -3168,8 +3326,11 @@
       <c r="N14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>27</v>
       </c>
@@ -3185,8 +3346,11 @@
       <c r="N15" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>31</v>
       </c>
@@ -3205,8 +3369,11 @@
       <c r="N20" t="s">
         <v>5</v>
       </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="21" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3222,8 +3389,11 @@
       <c r="N21" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="O21" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="22" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3239,8 +3409,11 @@
       <c r="N22" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="O22" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="23" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3256,8 +3429,11 @@
       <c r="N23" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="O23" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>44</v>
       </c>
@@ -3276,8 +3452,11 @@
       <c r="N27" t="s">
         <v>5</v>
       </c>
+      <c r="O27" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="28" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,8 +3472,11 @@
       <c r="N28" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="O28" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="29" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I29" s="1" t="s">
         <v>48</v>
       </c>
@@ -3310,8 +3492,11 @@
       <c r="N29" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="O29" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="30" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3327,8 +3512,11 @@
       <c r="N30" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
         <v>56</v>
       </c>
@@ -3347,8 +3535,11 @@
       <c r="N35" t="s">
         <v>5</v>
       </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="36" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="s">
         <v>57</v>
       </c>
@@ -3364,8 +3555,11 @@
       <c r="N36" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="O36" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="37" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3381,8 +3575,11 @@
       <c r="N37" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="O37" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="38" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I38" s="1" t="s">
         <v>65</v>
       </c>
@@ -3398,8 +3595,11 @@
       <c r="N38" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="O38" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="43" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>69</v>
       </c>
@@ -3418,8 +3618,11 @@
       <c r="N43" t="s">
         <v>5</v>
       </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="44" spans="9:14" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:15" ht="375" x14ac:dyDescent="0.25">
       <c r="I44" s="1" t="s">
         <v>70</v>
       </c>
@@ -3435,8 +3638,11 @@
       <c r="N44" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="O44" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="45" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I45" s="1" t="s">
         <v>73</v>
       </c>
@@ -3452,8 +3658,11 @@
       <c r="N45" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="O45" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="46" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
         <v>76</v>
       </c>
@@ -3469,76 +3678,91 @@
       <c r="N46" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="O46" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="49" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I49" t="s">
+    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
         <v>80</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J48" t="s">
         <v>1</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K48" t="s">
         <v>2</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L48" t="s">
         <v>3</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M48" t="s">
         <v>4</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N48" t="s">
         <v>5</v>
       </c>
+      <c r="O48" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="50" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I50" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L50" s="3">
-        <v>99.99</v>
+        <v>329.99</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="51" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I51" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L51" s="3">
-        <v>329.99</v>
+        <v>3299.99</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="9:14" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="I52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3299.99</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3557,34 +3781,31 @@
     <hyperlink ref="K44" r:id="rId11" xr:uid="{4CAF1DEC-BDF8-4B85-AA64-A9651E285C5D}"/>
     <hyperlink ref="K45" r:id="rId12" xr:uid="{DA1FFD16-DBD5-4CDA-AD90-6DE8DC6345FC}"/>
     <hyperlink ref="K46" r:id="rId13" xr:uid="{9E551616-6078-4965-AD03-D740AB3CAE61}"/>
-    <hyperlink ref="K50" r:id="rId14" xr:uid="{536D0978-4168-4F14-A7FA-049A494FB195}"/>
-    <hyperlink ref="K51" r:id="rId15" xr:uid="{1644DDAB-EB84-4964-A68F-D8DC62C23ABE}"/>
+    <hyperlink ref="K49" r:id="rId14" xr:uid="{536D0978-4168-4F14-A7FA-049A494FB195}"/>
+    <hyperlink ref="K50" r:id="rId15" xr:uid="{1644DDAB-EB84-4964-A68F-D8DC62C23ABE}"/>
     <hyperlink ref="K13" r:id="rId16" xr:uid="{88F72368-3887-45BD-8014-66B551F4B24E}"/>
     <hyperlink ref="K14" r:id="rId17" xr:uid="{6AC5E5E0-D600-49E0-BFFD-6AF54BB16868}"/>
     <hyperlink ref="K28" r:id="rId18" xr:uid="{D0B1B2E3-DB01-44B6-9635-00C204E396C3}"/>
+    <hyperlink ref="K7" r:id="rId19" xr:uid="{7B447DFD-74B6-4504-B10F-9F88D12A8707}"/>
+    <hyperlink ref="K37" r:id="rId20" xr:uid="{257F2000-D483-4408-BE24-D54288F6E052}"/>
+    <hyperlink ref="K51" r:id="rId21" xr:uid="{1575A29B-15F5-416A-8E44-37D4EC83BF3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="3" orientation="portrait" r:id="rId19"/>
-  <drawing r:id="rId20"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="3" orientation="portrait" r:id="rId22"/>
+  <drawing r:id="rId23"/>
   <tableParts count="7">
-    <tablePart r:id="rId21"/>
-    <tablePart r:id="rId22"/>
-    <tablePart r:id="rId23"/>
     <tablePart r:id="rId24"/>
     <tablePart r:id="rId25"/>
     <tablePart r:id="rId26"/>
     <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE6F43982FCDDC42866CFB113C1994CC" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e618220c55a6646c7c6a10596ff30a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1683741a-8348-4b6f-ba41-c90298442ec5" xmlns:ns4="f3c493fe-c962-47b3-bbd3-25c276a34efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ab23d99f8f29e8bf028335f6fc14b74" ns3:_="" ns4:_="">
     <xsd:import namespace="1683741a-8348-4b6f-ba41-c90298442ec5"/>
@@ -3769,6 +3990,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3779,15 +4006,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557C28A5-20B6-4EE8-8D2E-7B9C75015BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAEB054A-22F6-483F-9184-179665E04F2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3806,6 +4024,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557C28A5-20B6-4EE8-8D2E-7B9C75015BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B7801B-3C75-4C03-9969-ECF0D2E59169}">
   <ds:schemaRefs>

--- a/CompUK products.xlsx
+++ b/CompUK products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoka-San\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0781D309-B215-426D-B32E-5BBC1EF53FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C55258-6418-4934-9435-40251F97A717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12750" yWindow="4020" windowWidth="22680" windowHeight="10710" xr2:uid="{912234AA-1003-49A8-A642-EAA97F3789A8}"/>
+    <workbookView xWindow="-16110" yWindow="5820" windowWidth="22680" windowHeight="9240" xr2:uid="{912234AA-1003-49A8-A642-EAA97F3789A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>Gaming Laptop Name</t>
   </si>
@@ -1134,9 +1134,6 @@
     <t>This Microsoft keyboard offers unbeatable value, while also being truly reliable.Quiet touch keys and quick access to media controls simplify how you use your computer. The keyboard comes in a slim, lightweight profile, not taking a lot space on your desk.</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Mini-Description</t>
   </si>
   <si>
@@ -1243,6 +1240,51 @@
 60Hz / 1ms Response Time
 Panel Type: VA
 Height Adjustable</t>
+  </si>
+  <si>
+    <t>Manufacturer Link</t>
+  </si>
+  <si>
+    <t>https://rog.asus.com/uk/laptops/rog-zephyrus/2021-rog-zephyrus-g15-series/</t>
+  </si>
+  <si>
+    <t>https://www.razer.com/gb-en/gaming-laptops/Razer-Blade-17/RZ09-0423PWC3-R3W1?utm_source=google&amp;utm_medium=google-shopping&amp;utm_campaign=210101_RS_SYS_MID_UK_EGR-systems_TR&amp;CID=210101_RS_SYS_MID_UK_EGR-systems_TR&amp;gclid=Cj0KCQiA37KbBhDgARIsAIzce174WwKrkhYQj5Md2ir8pqsrEJRCbnew2ZIIH9a8Cb5ynmq-06OlbcQaAsRWEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/uk/shop/buy-mac/macbook-air/starlight-apple-m2-chip-with-8-core-cpu-and-8-core-gpu-256gb</t>
+  </si>
+  <si>
+    <t>https://www.lenovo.com/gb/en/p/laptops/thinkpad/thinkpadp/thinkpad-p15-gen-2-(15-inch-intel)/wmd00000487?orgRef=https%253A%252F%252Fwww.google.com%252F</t>
+  </si>
+  <si>
+    <t>Same as Link</t>
+  </si>
+  <si>
+    <t>https://xenta.co.uk/computing/keyboards-mice/xenta-black-wired-3-button-optical-scroll-mouse-usb/</t>
+  </si>
+  <si>
+    <t>https://www.logitech.com/en-gb/products/mice/m705-wireless-mouse.910-001949.html</t>
+  </si>
+  <si>
+    <t>https://www.razer.com/gaming-mice/Razer-DeathAdder-V3-Pro/RZ01-04630200-R3U1</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en/accessories/products/keyboards/wired-keyboard-600?activetab=pivot:overviewtab</t>
+  </si>
+  <si>
+    <t>https://www.cherry.co.uk/cherry-stream-keyboard-wireless.html</t>
+  </si>
+  <si>
+    <t>https://www.logitechg.com/en-gb/products/gaming-keyboards/g815-low-profile-rgb-mechanical-gaming-keyboard.html</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/uk/monitors/lg-24MP58VQ</t>
+  </si>
+  <si>
+    <t>https://www.msi.com/Monitor/Optix-G27CQ4</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/uk/monitors/lg-32ep950-b</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1354,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="56">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2760,112 +2823,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}" name="Table2" displayName="Table2" ref="I5:O8" totalsRowShown="0" dataDxfId="48">
-  <autoFilter ref="I5:O8" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BD4EC31F-7966-4A78-ABB4-C5D25180DEA2}" name="Gaming Laptop Name" dataDxfId="47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}" name="Table2" displayName="Table2" ref="I5:P8" totalsRowShown="0" dataDxfId="55">
+  <autoFilter ref="I5:P8" xr:uid="{0DB5C271-A4B8-4202-86A1-7EF7A400B5ED}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{BD4EC31F-7966-4A78-ABB4-C5D25180DEA2}" name="Gaming Laptop Name" dataDxfId="54"/>
     <tableColumn id="7" xr3:uid="{B7F900E5-1F23-4D01-90EE-D8B64958A59B}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{E9FDD7F0-BA33-4D49-91D3-F5036827C341}" name="Link" dataDxfId="46" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{CAB441C9-F71D-44FA-83B2-91CE010B3CD5}" name="Price" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{70F2F909-187F-483D-800B-B0DBA5C0BC1F}" name="Specs" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{FABA0F8A-7BBC-4C72-A703-72832F569AC7}" name="Description" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{316C7D3D-E8AC-4226-9D77-9353869DCF00}" name="Mini-Description" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E9FDD7F0-BA33-4D49-91D3-F5036827C341}" name="Link" dataDxfId="53" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{CAB441C9-F71D-44FA-83B2-91CE010B3CD5}" name="Price" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{70F2F909-187F-483D-800B-B0DBA5C0BC1F}" name="Specs" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{FABA0F8A-7BBC-4C72-A703-72832F569AC7}" name="Description" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{316C7D3D-E8AC-4226-9D77-9353869DCF00}" name="Mini-Description" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{AB9B561A-3304-4F96-A70A-735F7DAC97A4}" name="Manufacturer Link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}" name="Table26" displayName="Table26" ref="I12:O15" totalsRowShown="0" dataDxfId="42">
-  <autoFilter ref="I12:O15" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0924C0A3-575C-422C-B77C-8D040F85F234}" name="non-Gaming Laptop Name" dataDxfId="41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}" name="Table26" displayName="Table26" ref="I12:P15" totalsRowShown="0" dataDxfId="48">
+  <autoFilter ref="I12:P15" xr:uid="{18BC7F0D-1C36-428D-955E-EF2C10848EE8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0924C0A3-575C-422C-B77C-8D040F85F234}" name="non-Gaming Laptop Name" dataDxfId="47"/>
     <tableColumn id="7" xr3:uid="{25DBC3D1-F62D-418E-A9CB-479A740DF47A}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{E022DE44-48BC-4FF1-91D9-5330411F9CFD}" name="Link" dataDxfId="40" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{CAD0666E-7AC8-4E4F-865D-91105F63C8BE}" name="Price" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{3FE32DAA-16CE-42A6-9B65-7061E3A5F4C3}" name="Specs" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{2ED7B774-C2B8-4561-83C4-0957E15D3107}" name="Description" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{9961F387-0676-4F03-9731-C9D35CD4A301}" name="Mini-Description" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E022DE44-48BC-4FF1-91D9-5330411F9CFD}" name="Link" dataDxfId="46" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{CAD0666E-7AC8-4E4F-865D-91105F63C8BE}" name="Price" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{3FE32DAA-16CE-42A6-9B65-7061E3A5F4C3}" name="Specs" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{2ED7B774-C2B8-4561-83C4-0957E15D3107}" name="Description" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{9961F387-0676-4F03-9731-C9D35CD4A301}" name="Mini-Description" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{E5875EFC-4BE4-40D7-B8D4-E49FC31F0FF6}" name="Manufacturer Link" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}" name="Table25" displayName="Table25" ref="I20:O23" totalsRowShown="0" dataDxfId="36">
-  <autoFilter ref="I20:O23" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D0F346CF-B0F0-4788-AE29-0DC657DEB108}" name="Gaming Desktops" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}" name="Table25" displayName="Table25" ref="I20:P23" totalsRowShown="0" dataDxfId="41">
+  <autoFilter ref="I20:P23" xr:uid="{67593568-EABE-4ABF-82F2-4DC56A0FE0B7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D0F346CF-B0F0-4788-AE29-0DC657DEB108}" name="Gaming Desktops" dataDxfId="40"/>
     <tableColumn id="7" xr3:uid="{C6FD16B5-0CEF-4056-A800-0DEE8E349C5D}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{04D83A8C-53E6-460F-9009-22C9BA6714DE}" name="Link" dataDxfId="34" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{FC9484C5-ED3A-4B71-9ECB-409A1BB1D045}" name="Price" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{6419EC40-AE4A-41DD-ACF2-657DC52A8E35}" name="Specs" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{1F7D6E6C-436F-4905-BB3C-7DFF11518BCD}" name="Description" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{78C692A8-EB3E-4A29-9C62-E3E734DFA482}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{04D83A8C-53E6-460F-9009-22C9BA6714DE}" name="Link" dataDxfId="39" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{FC9484C5-ED3A-4B71-9ECB-409A1BB1D045}" name="Price" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{6419EC40-AE4A-41DD-ACF2-657DC52A8E35}" name="Specs" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{1F7D6E6C-436F-4905-BB3C-7DFF11518BCD}" name="Description" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{78C692A8-EB3E-4A29-9C62-E3E734DFA482}" name="Mini-Description" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{0A8D87F7-93FD-4B97-93A9-2768CBE73B9C}" name="Manufacturer Link" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}" name="Table257" displayName="Table257" ref="I27:O30" totalsRowShown="0" dataDxfId="30">
-  <autoFilter ref="I27:O30" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{109F89B4-1987-4BA1-979D-204F30C7F26A}" name="Non-Gaming Desktops" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}" name="Table257" displayName="Table257" ref="I27:P30" totalsRowShown="0" dataDxfId="34">
+  <autoFilter ref="I27:P30" xr:uid="{AA3C84C0-8D99-4371-A53B-C3923DCC6119}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{109F89B4-1987-4BA1-979D-204F30C7F26A}" name="Non-Gaming Desktops" dataDxfId="33"/>
     <tableColumn id="7" xr3:uid="{2DD0F052-8B2C-4EA4-BD7E-76C6D5854CC4}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{AE9A20E0-D2B8-4329-BFD1-15FF06EE29DE}" name="Link" dataDxfId="28" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{E763E5E0-B06C-4670-9F96-D8F83D5EA989}" name="Price" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{C47D91B9-C1E9-4414-A2DB-C3507C4710F6}" name="Specs" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{422FD5C0-23B8-481F-ACBA-465106F0988D}" name="Description" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{F802B731-CDDA-443D-B713-152EAE70261D}" name="Mini-Description" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AE9A20E0-D2B8-4329-BFD1-15FF06EE29DE}" name="Link" dataDxfId="32" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{E763E5E0-B06C-4670-9F96-D8F83D5EA989}" name="Price" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C47D91B9-C1E9-4414-A2DB-C3507C4710F6}" name="Specs" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{422FD5C0-23B8-481F-ACBA-465106F0988D}" name="Description" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{F802B731-CDDA-443D-B713-152EAE70261D}" name="Mini-Description" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{1E56C6F1-4367-4BA7-A105-21A76FA44F75}" name="Manufacturer Link" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}" name="Table2578" displayName="Table2578" ref="I35:O38" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="I35:O38" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{76792B42-276C-41C5-B27D-2D7E32988638}" name="Mice" dataDxfId="23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}" name="Table2578" displayName="Table2578" ref="I35:P38" totalsRowShown="0" dataDxfId="27">
+  <autoFilter ref="I35:P38" xr:uid="{FA9709E9-0E18-4496-BB6D-2C22D3354976}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{76792B42-276C-41C5-B27D-2D7E32988638}" name="Mice" dataDxfId="26"/>
     <tableColumn id="7" xr3:uid="{B661CF20-49A0-4369-B6A6-AD231B715891}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{516813A2-01BE-4C76-8B0D-19BC1904D922}" name="Link" dataDxfId="22" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{ECF917B9-2321-44A2-A5B8-76CEAD7B2EA5}" name="Price" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{1261F118-2504-4A5F-9574-0FBEED048CB4}" name="Specs" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{02DEA651-2377-4873-B207-C40D403F8CC9}" name="Description" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{B59127EC-DFD4-41CB-AA25-3C944BA0AB93}" name="Mini-Description" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{516813A2-01BE-4C76-8B0D-19BC1904D922}" name="Link" dataDxfId="25" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{ECF917B9-2321-44A2-A5B8-76CEAD7B2EA5}" name="Price" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1261F118-2504-4A5F-9574-0FBEED048CB4}" name="Specs" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{02DEA651-2377-4873-B207-C40D403F8CC9}" name="Description" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{B59127EC-DFD4-41CB-AA25-3C944BA0AB93}" name="Mini-Description" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{AB0EB0D1-8D08-4DC6-AB7D-BD0E31804E77}" name="Manufacturer Link" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}" name="Table25789" displayName="Table25789" ref="I43:O46" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="I43:O46" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C64F1AB3-1C41-4995-BBBE-377BE610C786}" name="Keyboards" dataDxfId="17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}" name="Table25789" displayName="Table25789" ref="I43:P46" totalsRowShown="0" dataDxfId="20">
+  <autoFilter ref="I43:P46" xr:uid="{4BF5737C-993F-4180-8D90-BAB39F845990}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C64F1AB3-1C41-4995-BBBE-377BE610C786}" name="Keyboards" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{EFA177AB-3DB3-45C8-BB28-FCC206FCA733}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{18D4AAAE-678E-4FDA-B7BD-41E33064C28E}" name="Link" dataDxfId="16" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{CBB97B77-62BC-4EBC-82F0-1F7C4CE05267}" name="Price" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4BCC1978-356D-4255-9803-11BE525BB697}" name="Specs" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{253E6D19-0FF9-4A30-A877-41643148E9B1}" name="Description" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{AD7CE236-0EBC-4A3C-B92F-53CB876F7311}" name="Mini-Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{18D4AAAE-678E-4FDA-B7BD-41E33064C28E}" name="Link" dataDxfId="18" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{CBB97B77-62BC-4EBC-82F0-1F7C4CE05267}" name="Price" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{4BCC1978-356D-4255-9803-11BE525BB697}" name="Specs" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{253E6D19-0FF9-4A30-A877-41643148E9B1}" name="Description" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AD7CE236-0EBC-4A3C-B92F-53CB876F7311}" name="Mini-Description" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{13EC0D2B-22DE-4E33-8100-2FB9259AD4C0}" name="Manufacturer Link" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}" name="Table2578910" displayName="Table2578910" ref="I48:O51" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="I48:O51" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FF451220-E59C-48E3-AE18-920BEE873F38}" name="Monitors" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}" name="Table2578910" displayName="Table2578910" ref="I48:P51" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="I48:P51" xr:uid="{08B8DDEF-C21E-45F0-9E5C-06D43BA0A3B9}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FF451220-E59C-48E3-AE18-920BEE873F38}" name="Monitors" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{4BA9E720-4254-4A46-B23F-6CF599AB4B15}" name="Image"/>
-    <tableColumn id="6" xr3:uid="{F6030696-5319-4764-9C2C-F8CD18AFF761}" name="Link" dataDxfId="10" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{3A1AEFF1-89E1-418B-B6F8-1F039973D544}" name="Price" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{469EE545-9E7D-45A1-95BA-A308E2E0360E}" name="Specs" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8DE434C1-3991-4978-8691-E259D34889B2}" name="Description" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{78E2AF30-5F0D-4BDF-82E2-A302E42737DB}" name="Mini-Description" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F6030696-5319-4764-9C2C-F8CD18AFF761}" name="Link" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{3A1AEFF1-89E1-418B-B6F8-1F039973D544}" name="Price" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{469EE545-9E7D-45A1-95BA-A308E2E0360E}" name="Specs" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8DE434C1-3991-4978-8691-E259D34889B2}" name="Description" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{78E2AF30-5F0D-4BDF-82E2-A302E42737DB}" name="Mini-Description" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{24403785-7BEB-4EFF-95E3-8E387BAAABD4}" name="Manufacturer Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3171,10 +3241,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="I5:O51"/>
+  <dimension ref="I5:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="K50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,9 +3252,10 @@
     <col min="9" max="13" width="50.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -3204,10 +3275,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="P5" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="6" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3224,10 +3298,11 @@
         <v>9</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3244,10 +3319,13 @@
         <v>13</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="8" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3264,10 +3342,13 @@
         <v>17</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="12" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>18</v>
       </c>
@@ -3287,10 +3368,13 @@
         <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="13" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3307,10 +3391,11 @@
         <v>22</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>23</v>
       </c>
@@ -3327,10 +3412,13 @@
         <v>26</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="15" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>27</v>
       </c>
@@ -3347,10 +3435,13 @@
         <v>30</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>31</v>
       </c>
@@ -3372,8 +3463,11 @@
       <c r="O20" t="s">
         <v>95</v>
       </c>
+      <c r="P20" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3390,10 +3484,13 @@
         <v>35</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="22" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
         <v>36</v>
       </c>
@@ -3410,10 +3507,13 @@
         <v>39</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="23" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
         <v>40</v>
       </c>
@@ -3430,10 +3530,13 @@
         <v>43</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>44</v>
       </c>
@@ -3453,10 +3556,13 @@
         <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="P27" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="28" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I28" s="1" t="s">
         <v>45</v>
       </c>
@@ -3473,10 +3579,11 @@
         <v>47</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I29" s="1" t="s">
         <v>48</v>
       </c>
@@ -3493,10 +3600,11 @@
         <v>51</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3513,10 +3621,11 @@
         <v>55</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P30" s="1"/>
     </row>
-    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
         <v>56</v>
       </c>
@@ -3536,10 +3645,13 @@
         <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="P35" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="36" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="s">
         <v>57</v>
       </c>
@@ -3556,10 +3668,13 @@
         <v>60</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="37" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3576,10 +3691,13 @@
         <v>64</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="38" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I38" s="1" t="s">
         <v>65</v>
       </c>
@@ -3596,10 +3714,13 @@
         <v>68</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>69</v>
       </c>
@@ -3619,10 +3740,13 @@
         <v>5</v>
       </c>
       <c r="O43" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="P43" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="44" spans="9:15" ht="375" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:16" ht="375" x14ac:dyDescent="0.25">
       <c r="I44" s="1" t="s">
         <v>70</v>
       </c>
@@ -3639,10 +3763,13 @@
         <v>94</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="45" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I45" s="1" t="s">
         <v>73</v>
       </c>
@@ -3659,10 +3786,13 @@
         <v>93</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="46" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
         <v>76</v>
       </c>
@@ -3679,10 +3809,13 @@
         <v>79</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>80</v>
       </c>
@@ -3702,10 +3835,13 @@
         <v>5</v>
       </c>
       <c r="O48" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="P48" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="49" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I49" s="1" t="s">
         <v>81</v>
       </c>
@@ -3722,10 +3858,13 @@
         <v>84</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="50" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I50" s="1" t="s">
         <v>85</v>
       </c>
@@ -3742,10 +3881,13 @@
         <v>88</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="51" spans="9:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="I51" s="1" t="s">
         <v>89</v>
       </c>
@@ -3762,7 +3904,10 @@
         <v>92</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3789,23 +3934,42 @@
     <hyperlink ref="K7" r:id="rId19" xr:uid="{7B447DFD-74B6-4504-B10F-9F88D12A8707}"/>
     <hyperlink ref="K37" r:id="rId20" xr:uid="{257F2000-D483-4408-BE24-D54288F6E052}"/>
     <hyperlink ref="K51" r:id="rId21" xr:uid="{1575A29B-15F5-416A-8E44-37D4EC83BF3A}"/>
+    <hyperlink ref="P7" r:id="rId22" xr:uid="{47B90D4F-A136-4F17-BDB5-2341CDEC6AC1}"/>
+    <hyperlink ref="P8" r:id="rId23" display="https://www.razer.com/gb-en/gaming-laptops/Razer-Blade-17/RZ09-0423PWC3-R3W1?utm_source=google&amp;utm_medium=google-shopping&amp;utm_campaign=210101_RS_SYS_MID_UK_EGR-systems_TR&amp;CID=210101_RS_SYS_MID_UK_EGR-systems_TR&amp;gclid=Cj0KCQiA37KbBhDgARIsAIzce174WwKrkhYQj5Md2ir8pqsrEJRCbnew2ZIIH9a8Cb5ynmq-06OlbcQaAsRWEALw_wcB" xr:uid="{9DE21AB3-39D6-41E8-9888-CC2FF813DD9E}"/>
+    <hyperlink ref="P14" r:id="rId24" xr:uid="{E28C696C-36D1-441A-BCE9-08B19F35050F}"/>
+    <hyperlink ref="P15" r:id="rId25" xr:uid="{8480CC88-8E1E-4EE9-A725-E60449E0C1D5}"/>
+    <hyperlink ref="P36" r:id="rId26" xr:uid="{DB4E84AC-AE13-4C2F-AAB8-E559643CB05E}"/>
+    <hyperlink ref="P37" r:id="rId27" xr:uid="{B05E26A4-261D-4837-A114-0836C3BEEE87}"/>
+    <hyperlink ref="P38" r:id="rId28" xr:uid="{050D0182-BC58-4882-B3DC-0DB77908EEBF}"/>
+    <hyperlink ref="P44" r:id="rId29" xr:uid="{99D9EE60-92D6-4EFF-990E-23CA72CF01C4}"/>
+    <hyperlink ref="P45" r:id="rId30" xr:uid="{6DBC923D-74E2-4930-8F03-94EC5120F57C}"/>
+    <hyperlink ref="P46" r:id="rId31" xr:uid="{685CA374-2E58-4B05-8AC9-2EC632BD4F6A}"/>
+    <hyperlink ref="P49" r:id="rId32" xr:uid="{D90DEBB8-5B27-45D2-ADFC-7EC28889BB9B}"/>
+    <hyperlink ref="P50" r:id="rId33" xr:uid="{50E53321-9E1B-41B3-B276-48F442D35235}"/>
+    <hyperlink ref="P51" r:id="rId34" xr:uid="{AC911BDB-1C12-48A5-90D1-13C7B113E228}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="3" orientation="portrait" r:id="rId22"/>
-  <drawing r:id="rId23"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="3" orientation="portrait" r:id="rId35"/>
+  <drawing r:id="rId36"/>
   <tableParts count="7">
-    <tablePart r:id="rId24"/>
-    <tablePart r:id="rId25"/>
-    <tablePart r:id="rId26"/>
-    <tablePart r:id="rId27"/>
-    <tablePart r:id="rId28"/>
-    <tablePart r:id="rId29"/>
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE6F43982FCDDC42866CFB113C1994CC" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e618220c55a6646c7c6a10596ff30a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1683741a-8348-4b6f-ba41-c90298442ec5" xmlns:ns4="f3c493fe-c962-47b3-bbd3-25c276a34efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ab23d99f8f29e8bf028335f6fc14b74" ns3:_="" ns4:_="">
     <xsd:import namespace="1683741a-8348-4b6f-ba41-c90298442ec5"/>
@@ -3990,12 +4154,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4006,6 +4164,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557C28A5-20B6-4EE8-8D2E-7B9C75015BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAEB054A-22F6-483F-9184-179665E04F2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4024,15 +4191,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{557C28A5-20B6-4EE8-8D2E-7B9C75015BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B7801B-3C75-4C03-9969-ECF0D2E59169}">
   <ds:schemaRefs>
